--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Nodal</t>
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H2">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I2">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J2">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>1.685459814069111</v>
+        <v>1.224551475418222</v>
       </c>
       <c r="R2">
-        <v>15.169138326622</v>
+        <v>11.020963278764</v>
       </c>
       <c r="S2">
-        <v>0.280181022638085</v>
+        <v>0.1516129916400982</v>
       </c>
       <c r="T2">
-        <v>0.280181022638085</v>
+        <v>0.1516129916400982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H3">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I3">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J3">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
-        <v>0.3949610855931111</v>
+        <v>0.1684288217934444</v>
       </c>
       <c r="R3">
-        <v>3.554649770338</v>
+        <v>1.515859396141</v>
       </c>
       <c r="S3">
-        <v>0.06565603044344583</v>
+        <v>0.02085334758328534</v>
       </c>
       <c r="T3">
-        <v>0.06565603044344581</v>
+        <v>0.02085334758328534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H4">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I4">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J4">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>0.554814969242</v>
+        <v>0.6578509293881111</v>
       </c>
       <c r="R4">
-        <v>4.993334723178</v>
+        <v>5.920658364493</v>
       </c>
       <c r="S4">
-        <v>0.09222920900252753</v>
+        <v>0.08144920769760752</v>
       </c>
       <c r="T4">
-        <v>0.09222920900252753</v>
+        <v>0.08144920769760755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H5">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I5">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J5">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>0.8599849133551112</v>
+        <v>0.3340061801232222</v>
       </c>
       <c r="R5">
-        <v>7.739864220196001</v>
+        <v>3.006055621109</v>
       </c>
       <c r="S5">
-        <v>0.1429588830690922</v>
+        <v>0.04135365250976338</v>
       </c>
       <c r="T5">
-        <v>0.1429588830690922</v>
+        <v>0.0413536525097634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H6">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I6">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J6">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>0.5980015612724445</v>
+        <v>0.3491868463616666</v>
       </c>
       <c r="R6">
-        <v>5.382014051452001</v>
+        <v>3.142681617255</v>
       </c>
       <c r="S6">
-        <v>0.09940829652412866</v>
+        <v>0.0432331865838327</v>
       </c>
       <c r="T6">
-        <v>0.09940829652412865</v>
+        <v>0.04323318658383271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.220547</v>
       </c>
       <c r="I7">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J7">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N7">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O7">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P7">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q7">
-        <v>0.4669212041643332</v>
+        <v>0.7954999154626666</v>
       </c>
       <c r="R7">
-        <v>4.202290837479</v>
+        <v>7.159499239164</v>
       </c>
       <c r="S7">
-        <v>0.0776182614276229</v>
+        <v>0.09849167181114106</v>
       </c>
       <c r="T7">
-        <v>0.07761826142762289</v>
+        <v>0.09849167181114109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.220547</v>
       </c>
       <c r="I8">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J8">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P8">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q8">
         <v>0.1094156645823333</v>
       </c>
       <c r="R8">
-        <v>0.9847409812409997</v>
+        <v>0.984740981241</v>
       </c>
       <c r="S8">
-        <v>0.01818862279563481</v>
+        <v>0.01354686721842501</v>
       </c>
       <c r="T8">
-        <v>0.01818862279563481</v>
+        <v>0.01354686721842501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>1.220547</v>
       </c>
       <c r="I9">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J9">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N9">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P9">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q9">
-        <v>0.153699822069</v>
+        <v>0.4273567663103334</v>
       </c>
       <c r="R9">
-        <v>1.383298398621</v>
+        <v>3.846210896793</v>
       </c>
       <c r="S9">
-        <v>0.02555016320597859</v>
+        <v>0.05291148566524671</v>
       </c>
       <c r="T9">
-        <v>0.02555016320597859</v>
+        <v>0.05291148566524672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>1.220547</v>
       </c>
       <c r="I10">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J10">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N10">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P10">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q10">
-        <v>0.2382407387913333</v>
+        <v>0.2169789456676667</v>
       </c>
       <c r="R10">
-        <v>2.144166649122</v>
+        <v>1.952810511009</v>
       </c>
       <c r="S10">
-        <v>0.03960375279874314</v>
+        <v>0.02686438890970589</v>
       </c>
       <c r="T10">
-        <v>0.03960375279874313</v>
+        <v>0.02686438890970589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>1.220547</v>
       </c>
       <c r="I11">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J11">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N11">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O11">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P11">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q11">
-        <v>0.1656637593793333</v>
+        <v>0.226840694195</v>
       </c>
       <c r="R11">
-        <v>1.490973834414</v>
+        <v>2.041566247755</v>
       </c>
       <c r="S11">
-        <v>0.02753897846126161</v>
+        <v>0.0280853822505703</v>
       </c>
       <c r="T11">
-        <v>0.02753897846126161</v>
+        <v>0.02808538225057031</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H12">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I12">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J12">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N12">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O12">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P12">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q12">
-        <v>0.1390855164797778</v>
+        <v>0.4746119735164444</v>
       </c>
       <c r="R12">
-        <v>1.251769648318</v>
+        <v>4.271507761648</v>
       </c>
       <c r="S12">
-        <v>0.02312076616491341</v>
+        <v>0.05876220201234379</v>
       </c>
       <c r="T12">
-        <v>0.02312076616491341</v>
+        <v>0.05876220201234379</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H13">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I13">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J13">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O13">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P13">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q13">
-        <v>0.03259251043577777</v>
+        <v>0.06527968575688889</v>
       </c>
       <c r="R13">
-        <v>0.293332593922</v>
+        <v>0.5875171718119999</v>
       </c>
       <c r="S13">
-        <v>0.005417989101853621</v>
+        <v>0.008082345780970309</v>
       </c>
       <c r="T13">
-        <v>0.005417989101853619</v>
+        <v>0.008082345780970307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H14">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I14">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J14">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N14">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P14">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q14">
-        <v>0.04578378309799999</v>
+        <v>0.2549700311862222</v>
       </c>
       <c r="R14">
-        <v>0.412054047882</v>
+        <v>2.294730280676</v>
       </c>
       <c r="S14">
-        <v>0.007610829437498481</v>
+        <v>0.03156810471647165</v>
       </c>
       <c r="T14">
-        <v>0.007610829437498481</v>
+        <v>0.03156810471647164</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H15">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I15">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J15">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N15">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P15">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q15">
-        <v>0.07096665541377777</v>
+        <v>0.1294542005764444</v>
       </c>
       <c r="R15">
-        <v>0.6386998987239999</v>
+        <v>1.165087805188</v>
       </c>
       <c r="S15">
-        <v>0.01179708345524608</v>
+        <v>0.01602785919887023</v>
       </c>
       <c r="T15">
-        <v>0.01179708345524608</v>
+        <v>0.01602785919887023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H16">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I16">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J16">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N16">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O16">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P16">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q16">
-        <v>0.04934757584311111</v>
+        <v>0.1353379270733333</v>
       </c>
       <c r="R16">
-        <v>0.444128182588</v>
+        <v>1.21804134366</v>
       </c>
       <c r="S16">
-        <v>0.008203253586363106</v>
+        <v>0.01675632949521345</v>
       </c>
       <c r="T16">
-        <v>0.008203253586363105</v>
+        <v>0.01675632949521345</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H17">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I17">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J17">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N17">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O17">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P17">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q17">
-        <v>0.185571939343</v>
+        <v>0.373658090212</v>
       </c>
       <c r="R17">
-        <v>1.670147454087</v>
+        <v>3.362922811908</v>
       </c>
       <c r="S17">
-        <v>0.03084839834450212</v>
+        <v>0.0462629967337378</v>
       </c>
       <c r="T17">
-        <v>0.03084839834450211</v>
+        <v>0.04626299673373781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H18">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I18">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J18">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O18">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P18">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q18">
-        <v>0.043485874897</v>
+        <v>0.051394157903</v>
       </c>
       <c r="R18">
-        <v>0.3913728740729999</v>
+        <v>0.4625474211269999</v>
       </c>
       <c r="S18">
-        <v>0.007228838562183421</v>
+        <v>0.006363164137168028</v>
       </c>
       <c r="T18">
-        <v>0.007228838562183419</v>
+        <v>0.006363164137168028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H19">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I19">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J19">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N19">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P19">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q19">
-        <v>0.06108605435699999</v>
+        <v>0.200735801519</v>
       </c>
       <c r="R19">
-        <v>0.5497744892129999</v>
+        <v>1.806622213671</v>
       </c>
       <c r="S19">
-        <v>0.01015458988449553</v>
+        <v>0.0248533083406513</v>
       </c>
       <c r="T19">
-        <v>0.01015458988449553</v>
+        <v>0.0248533083406513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H20">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I20">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J20">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N20">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P20">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q20">
-        <v>0.094685774674</v>
+        <v>0.101918223847</v>
       </c>
       <c r="R20">
-        <v>0.8521719720659999</v>
+        <v>0.9172640146229998</v>
       </c>
       <c r="S20">
-        <v>0.01574001169057407</v>
+        <v>0.01261860128404279</v>
       </c>
       <c r="T20">
-        <v>0.01574001169057407</v>
+        <v>0.01261860128404279</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H21">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I21">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J21">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N21">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O21">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P21">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q21">
-        <v>0.06584097023799999</v>
+        <v>0.106550433165</v>
       </c>
       <c r="R21">
-        <v>0.5925687321419999</v>
+        <v>0.9589538984849998</v>
       </c>
       <c r="S21">
-        <v>0.01094501940584989</v>
+        <v>0.0131921199369563</v>
       </c>
       <c r="T21">
-        <v>0.01094501940584988</v>
+        <v>0.01319211993695631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.149562</v>
+      </c>
+      <c r="I22">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J22">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.955270666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.865812</v>
+      </c>
+      <c r="O22">
+        <v>0.4478934208563147</v>
+      </c>
+      <c r="P22">
+        <v>0.4478934208563147</v>
+      </c>
+      <c r="Q22">
+        <v>0.7492349527048888</v>
+      </c>
+      <c r="R22">
+        <v>6.743114574344</v>
+      </c>
+      <c r="S22">
+        <v>0.09276355865899383</v>
+      </c>
+      <c r="T22">
+        <v>0.09276355865899384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.149562</v>
+      </c>
+      <c r="I23">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J23">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06160472848893509</v>
+      </c>
+      <c r="P23">
+        <v>0.06160472848893508</v>
+      </c>
+      <c r="Q23">
+        <v>0.1030522300317778</v>
+      </c>
+      <c r="R23">
+        <v>0.9274700702859999</v>
+      </c>
+      <c r="S23">
+        <v>0.01275900376908639</v>
+      </c>
+      <c r="T23">
+        <v>0.01275900376908639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.149562</v>
+      </c>
+      <c r="I24">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J24">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.050406333333333</v>
+      </c>
+      <c r="N24">
+        <v>3.151219</v>
+      </c>
+      <c r="O24">
+        <v>0.2406163473663007</v>
+      </c>
+      <c r="P24">
+        <v>0.2406163473663007</v>
+      </c>
+      <c r="Q24">
+        <v>0.4025024017864444</v>
+      </c>
+      <c r="R24">
+        <v>3.622521616078</v>
+      </c>
+      <c r="S24">
+        <v>0.04983424094632352</v>
+      </c>
+      <c r="T24">
+        <v>0.04983424094632352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.149562</v>
+      </c>
+      <c r="I25">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J25">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5333156666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.599947</v>
+      </c>
+      <c r="O25">
+        <v>0.1221665022709214</v>
+      </c>
+      <c r="P25">
+        <v>0.1221665022709214</v>
+      </c>
+      <c r="Q25">
+        <v>0.2043598081348889</v>
+      </c>
+      <c r="R25">
+        <v>1.839238273214</v>
+      </c>
+      <c r="S25">
+        <v>0.02530200036853912</v>
+      </c>
+      <c r="T25">
+        <v>0.02530200036853912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.149562</v>
+      </c>
+      <c r="I26">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J26">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5575549999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.672665</v>
+      </c>
+      <c r="O26">
+        <v>0.1277190010175279</v>
+      </c>
+      <c r="P26">
+        <v>0.1277190010175279</v>
+      </c>
+      <c r="Q26">
+        <v>0.2136480136366666</v>
+      </c>
+      <c r="R26">
+        <v>1.92283212273</v>
+      </c>
+      <c r="S26">
+        <v>0.02645198275095518</v>
+      </c>
+      <c r="T26">
+        <v>0.02645198275095518</v>
       </c>
     </row>
   </sheetData>
